--- a/zero-doc/src/main/resources/plugin/doc/oob/cab/d.paper.xlsx
+++ b/zero-doc/src/main/resources/plugin/doc/oob/cab/d.paper.xlsx
@@ -1,11 +1,11 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="5" rupBuild="26731"/>
-  <workbookPr filterPrivacy="1"/>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{3DF63256-9ED8-474F-9223-659B8610C5D4}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="5" rupBuild="10910"/>
+  <workbookPr filterPrivacy="1" defaultThemeVersion="166925"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{4E914B63-D63B-0042-89AD-D7AFF25618FC}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12624" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="0" yWindow="880" windowWidth="23260" windowHeight="12620" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="DATA-RES" sheetId="2" r:id="rId1"/>
@@ -67,9 +67,6 @@
     <t>审计底稿管理</t>
   </si>
   <si>
-    <t>undefined</t>
-  </si>
-  <si>
     <t>70fcb865-a1ac-4f6c-9fdc-2414661e248a</t>
   </si>
   <si>
@@ -599,6 +596,9 @@
   </si>
   <si>
     <t>res.paper.by.sigma</t>
+  </si>
+  <si>
+    <t>办公协同管理</t>
   </si>
 </sst>
 </file>
@@ -609,14 +609,14 @@
     <font>
       <sz val="11"/>
       <color theme="1"/>
-      <name val="等线"/>
+      <name val="Calibri"/>
       <family val="2"/>
       <scheme val="minor"/>
     </font>
     <font>
       <sz val="16"/>
       <color theme="1"/>
-      <name val="等线"/>
+      <name val="Calibri"/>
       <family val="4"/>
       <charset val="134"/>
       <scheme val="minor"/>
@@ -638,7 +638,7 @@
     <font>
       <sz val="16"/>
       <color rgb="FF0070C0"/>
-      <name val="等线"/>
+      <name val="Calibri"/>
       <family val="4"/>
       <charset val="134"/>
       <scheme val="minor"/>
@@ -646,7 +646,7 @@
     <font>
       <sz val="16"/>
       <color rgb="FF000000"/>
-      <name val="等线"/>
+      <name val="Calibri"/>
       <family val="4"/>
       <charset val="134"/>
       <scheme val="minor"/>
@@ -667,20 +667,20 @@
     <font>
       <sz val="16"/>
       <color theme="1"/>
-      <name val="等线"/>
+      <name val="Calibri"/>
       <family val="2"/>
       <scheme val="minor"/>
     </font>
     <font>
       <sz val="16"/>
       <color rgb="FF0070C0"/>
-      <name val="等线"/>
+      <name val="Calibri"/>
       <family val="2"/>
       <scheme val="minor"/>
     </font>
     <font>
       <sz val="9"/>
-      <name val="等线"/>
+      <name val="Calibri"/>
       <family val="3"/>
       <charset val="134"/>
       <scheme val="minor"/>
@@ -899,7 +899,7 @@
     </xf>
   </cellXfs>
   <cellStyles count="1">
-    <cellStyle name="常规" xfId="0" builtinId="0"/>
+    <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
   <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
@@ -1214,22 +1214,22 @@
   <dimension ref="A2:K64"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="C6" sqref="C6"/>
+      <selection activeCell="D5" sqref="D5:D10"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="11" defaultRowHeight="21" customHeight="1"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="11" defaultRowHeight="21" customHeight="1"/>
   <cols>
-    <col min="1" max="2" width="63.109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="62.77734375" style="1" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="33.44140625" style="2" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="14.109375" style="2" bestFit="1" customWidth="1"/>
+    <col min="1" max="2" width="63.1640625" style="1" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="62.83203125" style="1" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="33.5" style="2" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="14.1640625" style="2" bestFit="1" customWidth="1"/>
     <col min="6" max="6" width="36.33203125" style="2" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="14.109375" style="3" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="14.1640625" style="3" bestFit="1" customWidth="1"/>
     <col min="8" max="8" width="18" style="1" bestFit="1" customWidth="1"/>
     <col min="9" max="9" width="20.6640625" style="1" bestFit="1" customWidth="1"/>
-    <col min="10" max="10" width="14.109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="14.1640625" style="1" bestFit="1" customWidth="1"/>
     <col min="11" max="11" width="55.33203125" style="1" bestFit="1" customWidth="1"/>
-    <col min="12" max="12" width="19.44140625" style="1" customWidth="1"/>
+    <col min="12" max="12" width="19.5" style="1" customWidth="1"/>
     <col min="13" max="13" width="11" style="1" customWidth="1"/>
     <col min="14" max="16384" width="11" style="1"/>
   </cols>
@@ -1283,77 +1283,77 @@
         <v>12</v>
       </c>
       <c r="D5" s="12" t="s">
-        <v>13</v>
+        <v>190</v>
       </c>
     </row>
     <row r="6" spans="1:7" s="4" customFormat="1" ht="21" customHeight="1">
       <c r="A6" s="9" t="s">
+        <v>13</v>
+      </c>
+      <c r="B6" s="13" t="s">
         <v>14</v>
-      </c>
-      <c r="B6" s="13" t="s">
-        <v>15</v>
       </c>
       <c r="C6" s="11" t="s">
         <v>12</v>
       </c>
       <c r="D6" s="12" t="s">
-        <v>13</v>
+        <v>190</v>
       </c>
     </row>
     <row r="7" spans="1:7" s="4" customFormat="1" ht="21" customHeight="1">
       <c r="A7" s="9" t="s">
+        <v>15</v>
+      </c>
+      <c r="B7" s="13" t="s">
         <v>16</v>
-      </c>
-      <c r="B7" s="13" t="s">
-        <v>17</v>
       </c>
       <c r="C7" s="11" t="s">
         <v>12</v>
       </c>
       <c r="D7" s="12" t="s">
-        <v>13</v>
+        <v>190</v>
       </c>
     </row>
     <row r="8" spans="1:7" s="4" customFormat="1" ht="21" customHeight="1">
       <c r="A8" s="9" t="s">
+        <v>17</v>
+      </c>
+      <c r="B8" s="13" t="s">
         <v>18</v>
-      </c>
-      <c r="B8" s="13" t="s">
-        <v>19</v>
       </c>
       <c r="C8" s="11" t="s">
         <v>12</v>
       </c>
       <c r="D8" s="12" t="s">
-        <v>13</v>
+        <v>190</v>
       </c>
     </row>
     <row r="9" spans="1:7" s="4" customFormat="1" ht="21" customHeight="1">
       <c r="A9" s="9" t="s">
+        <v>19</v>
+      </c>
+      <c r="B9" s="13" t="s">
         <v>20</v>
-      </c>
-      <c r="B9" s="13" t="s">
-        <v>21</v>
       </c>
       <c r="C9" s="11" t="s">
         <v>12</v>
       </c>
       <c r="D9" s="12" t="s">
-        <v>13</v>
+        <v>190</v>
       </c>
     </row>
     <row r="10" spans="1:7" s="4" customFormat="1" ht="21" customHeight="1">
       <c r="A10" s="9" t="s">
+        <v>21</v>
+      </c>
+      <c r="B10" s="13" t="s">
         <v>22</v>
-      </c>
-      <c r="B10" s="13" t="s">
-        <v>23</v>
       </c>
       <c r="C10" s="11" t="s">
         <v>12</v>
       </c>
       <c r="D10" s="12" t="s">
-        <v>13</v>
+        <v>190</v>
       </c>
     </row>
     <row r="12" spans="1:7" ht="21" customHeight="1">
@@ -1361,10 +1361,10 @@
         <v>0</v>
       </c>
       <c r="B12" s="15" t="s">
+        <v>23</v>
+      </c>
+      <c r="C12" s="31" t="s">
         <v>24</v>
-      </c>
-      <c r="C12" s="31" t="s">
-        <v>25</v>
       </c>
       <c r="D12" s="32"/>
       <c r="E12" s="32"/>
@@ -1373,19 +1373,19 @@
     </row>
     <row r="13" spans="1:7" ht="21" customHeight="1">
       <c r="A13" s="16" t="s">
+        <v>25</v>
+      </c>
+      <c r="B13" s="16" t="s">
         <v>26</v>
       </c>
-      <c r="B13" s="16" t="s">
+      <c r="C13" s="17" t="s">
         <v>27</v>
       </c>
-      <c r="C13" s="17" t="s">
+      <c r="D13" s="16" t="s">
         <v>28</v>
       </c>
-      <c r="D13" s="16" t="s">
+      <c r="E13" s="16" t="s">
         <v>29</v>
-      </c>
-      <c r="E13" s="16" t="s">
-        <v>30</v>
       </c>
       <c r="F13" s="1"/>
       <c r="G13" s="1"/>
@@ -1398,140 +1398,140 @@
         <v>8</v>
       </c>
       <c r="C14" s="19" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="D14" s="18" t="s">
         <v>7</v>
       </c>
       <c r="E14" s="20" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="F14" s="1"/>
       <c r="G14" s="1"/>
     </row>
     <row r="15" spans="1:7" ht="21" customHeight="1">
       <c r="A15" s="9" t="s">
+        <v>32</v>
+      </c>
+      <c r="B15" s="21" t="s">
         <v>33</v>
       </c>
-      <c r="B15" s="21" t="s">
+      <c r="C15" s="22" t="s">
         <v>34</v>
-      </c>
-      <c r="C15" s="22" t="s">
-        <v>35</v>
       </c>
       <c r="D15" s="23" t="s">
         <v>11</v>
       </c>
       <c r="E15" s="21" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="F15" s="1"/>
       <c r="G15" s="1"/>
     </row>
     <row r="16" spans="1:7" ht="21" customHeight="1">
       <c r="A16" s="9" t="s">
+        <v>36</v>
+      </c>
+      <c r="B16" s="21" t="s">
         <v>37</v>
       </c>
-      <c r="B16" s="21" t="s">
+      <c r="C16" s="22" t="s">
         <v>38</v>
       </c>
-      <c r="C16" s="22" t="s">
-        <v>39</v>
-      </c>
       <c r="D16" s="23" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="E16" s="21" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="F16" s="1"/>
       <c r="G16" s="1"/>
     </row>
     <row r="17" spans="1:9" ht="21" customHeight="1">
       <c r="A17" s="9" t="s">
+        <v>39</v>
+      </c>
+      <c r="B17" s="21" t="s">
         <v>40</v>
       </c>
-      <c r="B17" s="21" t="s">
+      <c r="C17" s="22" t="s">
         <v>41</v>
       </c>
-      <c r="C17" s="22" t="s">
-        <v>42</v>
-      </c>
       <c r="D17" s="23" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="E17" s="21" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="F17" s="1"/>
       <c r="G17" s="1"/>
     </row>
     <row r="18" spans="1:9" ht="21" customHeight="1">
       <c r="A18" s="9" t="s">
+        <v>42</v>
+      </c>
+      <c r="B18" s="21" t="s">
         <v>43</v>
       </c>
-      <c r="B18" s="21" t="s">
-        <v>44</v>
-      </c>
       <c r="C18" s="22" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="D18" s="23" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="E18" s="21" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="F18" s="1"/>
       <c r="G18" s="1"/>
     </row>
     <row r="19" spans="1:9" ht="21" customHeight="1">
       <c r="A19" s="9" t="s">
+        <v>44</v>
+      </c>
+      <c r="B19" s="21" t="s">
         <v>45</v>
       </c>
-      <c r="B19" s="21" t="s">
+      <c r="C19" s="22" t="s">
         <v>46</v>
       </c>
-      <c r="C19" s="22" t="s">
-        <v>47</v>
-      </c>
       <c r="D19" s="23" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="E19" s="21" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="F19" s="1"/>
       <c r="G19" s="1"/>
     </row>
     <row r="20" spans="1:9" ht="21" customHeight="1">
       <c r="A20" s="9" t="s">
+        <v>47</v>
+      </c>
+      <c r="B20" s="21" t="s">
         <v>48</v>
       </c>
-      <c r="B20" s="21" t="s">
+      <c r="C20" s="22" t="s">
         <v>49</v>
       </c>
-      <c r="C20" s="22" t="s">
-        <v>50</v>
-      </c>
       <c r="D20" s="23" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="E20" s="21" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="F20" s="1"/>
       <c r="G20" s="1"/>
     </row>
-    <row r="25" spans="1:9" ht="20.399999999999999">
+    <row r="25" spans="1:9">
       <c r="A25" s="14" t="s">
         <v>0</v>
       </c>
       <c r="B25" s="15" t="s">
+        <v>50</v>
+      </c>
+      <c r="C25" s="24" t="s">
         <v>51</v>
-      </c>
-      <c r="C25" s="24" t="s">
-        <v>52</v>
       </c>
       <c r="D25" s="25"/>
       <c r="E25" s="25"/>
@@ -1540,67 +1540,67 @@
       <c r="H25" s="25"/>
       <c r="I25" s="25"/>
     </row>
-    <row r="26" spans="1:9" ht="20.399999999999999">
+    <row r="26" spans="1:9">
       <c r="A26" s="16" t="s">
+        <v>52</v>
+      </c>
+      <c r="B26" s="16" t="s">
         <v>53</v>
       </c>
-      <c r="B26" s="16" t="s">
+      <c r="C26" s="16" t="s">
         <v>54</v>
       </c>
-      <c r="C26" s="16" t="s">
+      <c r="D26" s="16" t="s">
         <v>55</v>
       </c>
-      <c r="D26" s="16" t="s">
+      <c r="E26" s="16" t="s">
         <v>56</v>
       </c>
-      <c r="E26" s="16" t="s">
+      <c r="F26" s="16" t="s">
         <v>57</v>
       </c>
-      <c r="F26" s="16" t="s">
+      <c r="G26" s="16" t="s">
         <v>58</v>
       </c>
-      <c r="G26" s="16" t="s">
+      <c r="H26" s="16" t="s">
         <v>59</v>
       </c>
-      <c r="H26" s="16" t="s">
+      <c r="I26" s="16" t="s">
         <v>60</v>
       </c>
-      <c r="I26" s="16" t="s">
-        <v>61</v>
-      </c>
-    </row>
-    <row r="27" spans="1:9" ht="20.399999999999999">
+    </row>
+    <row r="27" spans="1:9">
       <c r="A27" s="18" t="s">
         <v>6</v>
       </c>
       <c r="B27" s="18" t="s">
+        <v>61</v>
+      </c>
+      <c r="C27" s="18" t="s">
         <v>62</v>
-      </c>
-      <c r="C27" s="18" t="s">
-        <v>63</v>
       </c>
       <c r="D27" s="26" t="s">
         <v>7</v>
       </c>
       <c r="E27" s="18" t="s">
+        <v>63</v>
+      </c>
+      <c r="F27" s="26" t="s">
         <v>64</v>
-      </c>
-      <c r="F27" s="26" t="s">
-        <v>65</v>
       </c>
       <c r="G27" s="18" t="s">
         <v>8</v>
       </c>
       <c r="H27" s="18" t="s">
+        <v>65</v>
+      </c>
+      <c r="I27" s="18" t="s">
         <v>66</v>
       </c>
-      <c r="I27" s="18" t="s">
+    </row>
+    <row r="28" spans="1:9">
+      <c r="A28" s="9" t="s">
         <v>67</v>
-      </c>
-    </row>
-    <row r="28" spans="1:9" ht="20.399999999999999">
-      <c r="A28" s="9" t="s">
-        <v>68</v>
       </c>
       <c r="B28" s="27" t="str">
         <f t="shared" ref="B28:B42" si="0">A48</f>
@@ -1611,25 +1611,25 @@
         <v>13328dd8-2525-40ab-b60f-81202a203e9a</v>
       </c>
       <c r="D28" s="22" t="s">
+        <v>68</v>
+      </c>
+      <c r="E28" s="21" t="s">
         <v>69</v>
       </c>
-      <c r="E28" s="21" t="s">
+      <c r="F28" s="22" t="s">
         <v>70</v>
       </c>
-      <c r="F28" s="22" t="s">
+      <c r="G28" s="21" t="s">
         <v>71</v>
-      </c>
-      <c r="G28" s="21" t="s">
-        <v>72</v>
       </c>
       <c r="H28" s="21">
         <v>1</v>
       </c>
       <c r="I28" s="21"/>
     </row>
-    <row r="29" spans="1:9" ht="20.399999999999999">
+    <row r="29" spans="1:9">
       <c r="A29" s="9" t="s">
-        <v>73</v>
+        <v>72</v>
       </c>
       <c r="B29" s="27" t="str">
         <f t="shared" si="0"/>
@@ -1640,25 +1640,25 @@
         <v>40c3ec03-c6c1-4804-94d1-39d28ae75c39</v>
       </c>
       <c r="D29" s="22" t="s">
+        <v>73</v>
+      </c>
+      <c r="E29" s="21" t="s">
         <v>74</v>
       </c>
-      <c r="E29" s="21" t="s">
+      <c r="F29" s="22" t="s">
         <v>75</v>
       </c>
-      <c r="F29" s="22" t="s">
+      <c r="G29" s="21" t="s">
         <v>76</v>
-      </c>
-      <c r="G29" s="21" t="s">
-        <v>77</v>
       </c>
       <c r="H29" s="21">
         <v>4</v>
       </c>
       <c r="I29" s="21"/>
     </row>
-    <row r="30" spans="1:9" ht="20.399999999999999">
+    <row r="30" spans="1:9">
       <c r="A30" s="9" t="s">
-        <v>78</v>
+        <v>77</v>
       </c>
       <c r="B30" s="27" t="str">
         <f t="shared" si="0"/>
@@ -1669,25 +1669,25 @@
         <v>23659479-6f61-4e93-b4c9-1b9692c943cf</v>
       </c>
       <c r="D30" s="22" t="s">
+        <v>78</v>
+      </c>
+      <c r="E30" s="21" t="s">
         <v>79</v>
       </c>
-      <c r="E30" s="21" t="s">
+      <c r="F30" s="22" t="s">
+        <v>70</v>
+      </c>
+      <c r="G30" s="21" t="s">
         <v>80</v>
-      </c>
-      <c r="F30" s="22" t="s">
-        <v>71</v>
-      </c>
-      <c r="G30" s="21" t="s">
-        <v>81</v>
       </c>
       <c r="H30" s="21">
         <v>8</v>
       </c>
       <c r="I30" s="21"/>
     </row>
-    <row r="31" spans="1:9" ht="20.399999999999999">
+    <row r="31" spans="1:9">
       <c r="A31" s="9" t="s">
-        <v>82</v>
+        <v>81</v>
       </c>
       <c r="B31" s="27" t="str">
         <f t="shared" si="0"/>
@@ -1698,25 +1698,25 @@
         <v>8f876e5c-d021-4050-aaaa-7c9b8888a0e1</v>
       </c>
       <c r="D31" s="22" t="s">
+        <v>82</v>
+      </c>
+      <c r="E31" s="21" t="s">
         <v>83</v>
       </c>
-      <c r="E31" s="21" t="s">
+      <c r="F31" s="22" t="s">
+        <v>70</v>
+      </c>
+      <c r="G31" s="21" t="s">
         <v>84</v>
-      </c>
-      <c r="F31" s="22" t="s">
-        <v>71</v>
-      </c>
-      <c r="G31" s="21" t="s">
-        <v>85</v>
       </c>
       <c r="H31" s="21">
         <v>12</v>
       </c>
       <c r="I31" s="21"/>
     </row>
-    <row r="32" spans="1:9" ht="20.399999999999999">
+    <row r="32" spans="1:9">
       <c r="A32" s="9" t="s">
-        <v>86</v>
+        <v>85</v>
       </c>
       <c r="B32" s="27" t="str">
         <f t="shared" si="0"/>
@@ -1727,25 +1727,25 @@
         <v>13328dd8-2525-40ab-b60f-81202a203e9a</v>
       </c>
       <c r="D32" s="22" t="s">
+        <v>86</v>
+      </c>
+      <c r="E32" s="21" t="s">
+        <v>74</v>
+      </c>
+      <c r="F32" s="22" t="s">
         <v>87</v>
       </c>
-      <c r="E32" s="21" t="s">
-        <v>75</v>
-      </c>
-      <c r="F32" s="22" t="s">
+      <c r="G32" s="21" t="s">
         <v>88</v>
-      </c>
-      <c r="G32" s="21" t="s">
-        <v>89</v>
       </c>
       <c r="H32" s="21">
         <v>1</v>
       </c>
       <c r="I32" s="21"/>
     </row>
-    <row r="33" spans="1:11" ht="20.399999999999999">
+    <row r="33" spans="1:11">
       <c r="A33" s="9" t="s">
-        <v>90</v>
+        <v>89</v>
       </c>
       <c r="B33" s="27" t="str">
         <f t="shared" si="0"/>
@@ -1756,25 +1756,25 @@
         <v>23659479-6f61-4e93-b4c9-1b9692c943cf</v>
       </c>
       <c r="D33" s="22" t="s">
+        <v>90</v>
+      </c>
+      <c r="E33" s="21" t="s">
+        <v>79</v>
+      </c>
+      <c r="F33" s="22" t="s">
         <v>91</v>
       </c>
-      <c r="E33" s="21" t="s">
-        <v>80</v>
-      </c>
-      <c r="F33" s="22" t="s">
+      <c r="G33" s="21" t="s">
         <v>92</v>
-      </c>
-      <c r="G33" s="21" t="s">
-        <v>93</v>
       </c>
       <c r="H33" s="21">
         <v>8</v>
       </c>
       <c r="I33" s="21"/>
     </row>
-    <row r="34" spans="1:11" ht="20.399999999999999">
+    <row r="34" spans="1:11">
       <c r="A34" s="9" t="s">
-        <v>94</v>
+        <v>93</v>
       </c>
       <c r="B34" s="27" t="str">
         <f t="shared" si="0"/>
@@ -1785,25 +1785,25 @@
         <v>8f876e5c-d021-4050-aaaa-7c9b8888a0e1</v>
       </c>
       <c r="D34" s="22" t="s">
+        <v>94</v>
+      </c>
+      <c r="E34" s="21" t="s">
+        <v>83</v>
+      </c>
+      <c r="F34" s="22" t="s">
         <v>95</v>
       </c>
-      <c r="E34" s="21" t="s">
-        <v>84</v>
-      </c>
-      <c r="F34" s="22" t="s">
+      <c r="G34" s="21" t="s">
         <v>96</v>
-      </c>
-      <c r="G34" s="21" t="s">
-        <v>97</v>
       </c>
       <c r="H34" s="21">
         <v>12</v>
       </c>
       <c r="I34" s="21"/>
     </row>
-    <row r="35" spans="1:11" ht="20.399999999999999">
+    <row r="35" spans="1:11">
       <c r="A35" s="9" t="s">
-        <v>98</v>
+        <v>97</v>
       </c>
       <c r="B35" s="27" t="str">
         <f t="shared" si="0"/>
@@ -1814,25 +1814,25 @@
         <v>5b835d04-3b73-4097-9a39-32d8c1d623f1</v>
       </c>
       <c r="D35" s="22" t="s">
+        <v>98</v>
+      </c>
+      <c r="E35" s="21" t="s">
+        <v>69</v>
+      </c>
+      <c r="F35" s="22" t="s">
         <v>99</v>
       </c>
-      <c r="E35" s="21" t="s">
-        <v>70</v>
-      </c>
-      <c r="F35" s="22" t="s">
+      <c r="G35" s="21" t="s">
         <v>100</v>
-      </c>
-      <c r="G35" s="21" t="s">
-        <v>101</v>
       </c>
       <c r="H35" s="21">
         <v>3</v>
       </c>
       <c r="I35" s="21"/>
     </row>
-    <row r="36" spans="1:11" ht="20.399999999999999">
+    <row r="36" spans="1:11">
       <c r="A36" s="9" t="s">
-        <v>102</v>
+        <v>101</v>
       </c>
       <c r="B36" s="27" t="str">
         <f t="shared" si="0"/>
@@ -1843,25 +1843,25 @@
         <v>5b835d04-3b73-4097-9a39-32d8c1d623f1</v>
       </c>
       <c r="D36" s="22" t="s">
+        <v>102</v>
+      </c>
+      <c r="E36" s="21" t="s">
+        <v>69</v>
+      </c>
+      <c r="F36" s="22" t="s">
         <v>103</v>
       </c>
-      <c r="E36" s="21" t="s">
-        <v>70</v>
-      </c>
-      <c r="F36" s="22" t="s">
+      <c r="G36" s="21" t="s">
         <v>104</v>
-      </c>
-      <c r="G36" s="21" t="s">
-        <v>105</v>
       </c>
       <c r="H36" s="21">
         <v>3</v>
       </c>
       <c r="I36" s="21"/>
     </row>
-    <row r="37" spans="1:11" ht="20.399999999999999">
+    <row r="37" spans="1:11">
       <c r="A37" s="9" t="s">
-        <v>106</v>
+        <v>105</v>
       </c>
       <c r="B37" s="27" t="str">
         <f t="shared" si="0"/>
@@ -1872,25 +1872,25 @@
         <v>5b835d04-3b73-4097-9a39-32d8c1d623f1</v>
       </c>
       <c r="D37" s="22" t="s">
+        <v>106</v>
+      </c>
+      <c r="E37" s="21" t="s">
+        <v>79</v>
+      </c>
+      <c r="F37" s="22" t="s">
+        <v>103</v>
+      </c>
+      <c r="G37" s="21" t="s">
         <v>107</v>
-      </c>
-      <c r="E37" s="21" t="s">
-        <v>80</v>
-      </c>
-      <c r="F37" s="22" t="s">
-        <v>104</v>
-      </c>
-      <c r="G37" s="21" t="s">
-        <v>108</v>
       </c>
       <c r="H37" s="21">
         <v>11</v>
       </c>
       <c r="I37" s="21"/>
     </row>
-    <row r="38" spans="1:11" ht="20.399999999999999">
+    <row r="38" spans="1:11">
       <c r="A38" s="9" t="s">
-        <v>109</v>
+        <v>108</v>
       </c>
       <c r="B38" s="27" t="str">
         <f t="shared" si="0"/>
@@ -1901,25 +1901,25 @@
         <v>9ad3f8ad-d62b-4763-a3a6-192b993e51b5</v>
       </c>
       <c r="D38" s="22" t="s">
+        <v>109</v>
+      </c>
+      <c r="E38" s="21" t="s">
+        <v>74</v>
+      </c>
+      <c r="F38" s="22" t="s">
         <v>110</v>
       </c>
-      <c r="E38" s="21" t="s">
-        <v>75</v>
-      </c>
-      <c r="F38" s="22" t="s">
+      <c r="G38" s="21" t="s">
         <v>111</v>
-      </c>
-      <c r="G38" s="21" t="s">
-        <v>112</v>
       </c>
       <c r="H38" s="21">
         <v>5</v>
       </c>
       <c r="I38" s="21"/>
     </row>
-    <row r="39" spans="1:11" ht="20.399999999999999">
+    <row r="39" spans="1:11">
       <c r="A39" s="9" t="s">
-        <v>113</v>
+        <v>112</v>
       </c>
       <c r="B39" s="27" t="str">
         <f t="shared" si="0"/>
@@ -1930,25 +1930,25 @@
         <v>9ad3f8ad-d62b-4763-a3a6-192b993e51b5</v>
       </c>
       <c r="D39" s="22" t="s">
+        <v>113</v>
+      </c>
+      <c r="E39" s="21" t="s">
+        <v>74</v>
+      </c>
+      <c r="F39" s="22" t="s">
         <v>114</v>
       </c>
-      <c r="E39" s="21" t="s">
-        <v>75</v>
-      </c>
-      <c r="F39" s="22" t="s">
+      <c r="G39" s="21" t="s">
         <v>115</v>
-      </c>
-      <c r="G39" s="21" t="s">
-        <v>116</v>
       </c>
       <c r="H39" s="21">
         <v>3</v>
       </c>
       <c r="I39" s="21"/>
     </row>
-    <row r="40" spans="1:11" ht="20.399999999999999">
+    <row r="40" spans="1:11">
       <c r="A40" s="9" t="s">
-        <v>117</v>
+        <v>116</v>
       </c>
       <c r="B40" s="27" t="str">
         <f t="shared" si="0"/>
@@ -1959,25 +1959,25 @@
         <v>13328dd8-2525-40ab-b60f-81202a203e9a</v>
       </c>
       <c r="D40" s="22" t="s">
+        <v>117</v>
+      </c>
+      <c r="E40" s="21" t="s">
+        <v>74</v>
+      </c>
+      <c r="F40" s="22" t="s">
         <v>118</v>
       </c>
-      <c r="E40" s="21" t="s">
-        <v>75</v>
-      </c>
-      <c r="F40" s="22" t="s">
+      <c r="G40" s="21" t="s">
         <v>119</v>
-      </c>
-      <c r="G40" s="21" t="s">
-        <v>120</v>
       </c>
       <c r="H40" s="21">
         <v>1</v>
       </c>
       <c r="I40" s="21"/>
     </row>
-    <row r="41" spans="1:11" ht="20.399999999999999">
+    <row r="41" spans="1:11">
       <c r="A41" s="9" t="s">
-        <v>121</v>
+        <v>120</v>
       </c>
       <c r="B41" s="27" t="str">
         <f t="shared" si="0"/>
@@ -1988,25 +1988,25 @@
         <v>13328dd8-2525-40ab-b60f-81202a203e9a</v>
       </c>
       <c r="D41" s="22" t="s">
+        <v>121</v>
+      </c>
+      <c r="E41" s="21" t="s">
+        <v>74</v>
+      </c>
+      <c r="F41" s="22" t="s">
         <v>122</v>
       </c>
-      <c r="E41" s="21" t="s">
-        <v>75</v>
-      </c>
-      <c r="F41" s="22" t="s">
+      <c r="G41" s="21" t="s">
         <v>123</v>
-      </c>
-      <c r="G41" s="21" t="s">
-        <v>124</v>
       </c>
       <c r="H41" s="21">
         <v>1</v>
       </c>
       <c r="I41" s="21"/>
     </row>
-    <row r="42" spans="1:11" ht="20.399999999999999">
+    <row r="42" spans="1:11">
       <c r="A42" s="9" t="s">
-        <v>125</v>
+        <v>124</v>
       </c>
       <c r="B42" s="27" t="str">
         <f t="shared" si="0"/>
@@ -2017,23 +2017,23 @@
         <v>13328dd8-2525-40ab-b60f-81202a203e9a</v>
       </c>
       <c r="D42" s="22" t="s">
+        <v>125</v>
+      </c>
+      <c r="E42" s="21" t="s">
+        <v>69</v>
+      </c>
+      <c r="F42" s="22" t="s">
         <v>126</v>
       </c>
-      <c r="E42" s="21" t="s">
-        <v>70</v>
-      </c>
-      <c r="F42" s="22" t="s">
-        <v>127</v>
-      </c>
       <c r="G42" s="21" t="s">
-        <v>72</v>
+        <v>71</v>
       </c>
       <c r="H42" s="21">
         <v>1</v>
       </c>
       <c r="I42" s="21"/>
     </row>
-    <row r="43" spans="1:11" ht="20.399999999999999">
+    <row r="43" spans="1:11">
       <c r="A43" s="2"/>
       <c r="C43" s="2"/>
       <c r="D43" s="3"/>
@@ -2042,7 +2042,7 @@
       <c r="G43" s="1"/>
       <c r="K43" s="2"/>
     </row>
-    <row r="44" spans="1:11" ht="20.399999999999999">
+    <row r="44" spans="1:11">
       <c r="A44" s="2"/>
       <c r="C44" s="2"/>
       <c r="D44" s="3"/>
@@ -2051,15 +2051,15 @@
       <c r="G44" s="1"/>
       <c r="K44" s="2"/>
     </row>
-    <row r="45" spans="1:11" ht="20.399999999999999">
+    <row r="45" spans="1:11">
       <c r="A45" s="14" t="s">
         <v>0</v>
       </c>
       <c r="B45" s="15" t="s">
-        <v>128</v>
+        <v>127</v>
       </c>
       <c r="C45" s="31" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="D45" s="32"/>
       <c r="E45" s="32"/>
@@ -2070,42 +2070,42 @@
       <c r="J45" s="32"/>
       <c r="K45" s="32"/>
     </row>
-    <row r="46" spans="1:11" ht="20.399999999999999">
+    <row r="46" spans="1:11">
       <c r="A46" s="16" t="s">
+        <v>128</v>
+      </c>
+      <c r="B46" s="16" t="s">
         <v>129</v>
       </c>
-      <c r="B46" s="16" t="s">
+      <c r="C46" s="28" t="s">
         <v>130</v>
       </c>
-      <c r="C46" s="28" t="s">
+      <c r="D46" s="16" t="s">
         <v>131</v>
       </c>
-      <c r="D46" s="16" t="s">
+      <c r="E46" s="16" t="s">
+        <v>29</v>
+      </c>
+      <c r="F46" s="17" t="s">
         <v>132</v>
       </c>
-      <c r="E46" s="16" t="s">
-        <v>30</v>
-      </c>
-      <c r="F46" s="17" t="s">
+      <c r="G46" s="28" t="s">
         <v>133</v>
       </c>
-      <c r="G46" s="28" t="s">
+      <c r="H46" s="28" t="s">
         <v>134</v>
       </c>
-      <c r="H46" s="28" t="s">
+      <c r="I46" s="28" t="s">
         <v>135</v>
       </c>
-      <c r="I46" s="28" t="s">
+      <c r="J46" s="16" t="s">
         <v>136</v>
       </c>
-      <c r="J46" s="16" t="s">
+      <c r="K46" s="16" t="s">
         <v>137</v>
       </c>
-      <c r="K46" s="16" t="s">
-        <v>138</v>
-      </c>
-    </row>
-    <row r="47" spans="1:11" ht="20.399999999999999">
+    </row>
+    <row r="47" spans="1:11">
       <c r="A47" s="18" t="s">
         <v>6</v>
       </c>
@@ -2113,51 +2113,51 @@
         <v>8</v>
       </c>
       <c r="C47" s="18" t="s">
-        <v>139</v>
+        <v>138</v>
       </c>
       <c r="D47" s="26" t="s">
         <v>7</v>
       </c>
       <c r="E47" s="20" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="F47" s="20" t="s">
         <v>9</v>
       </c>
       <c r="G47" s="18" t="s">
-        <v>66</v>
+        <v>65</v>
       </c>
       <c r="H47" s="18" t="s">
+        <v>139</v>
+      </c>
+      <c r="I47" s="18" t="s">
         <v>140</v>
       </c>
-      <c r="I47" s="18" t="s">
+      <c r="J47" s="18" t="s">
         <v>141</v>
       </c>
-      <c r="J47" s="18" t="s">
+      <c r="K47" s="18" t="s">
         <v>142</v>
       </c>
-      <c r="K47" s="18" t="s">
+    </row>
+    <row r="48" spans="1:11">
+      <c r="A48" s="9" t="s">
         <v>143</v>
       </c>
-    </row>
-    <row r="48" spans="1:11" ht="20.399999999999999">
-      <c r="A48" s="9" t="s">
+      <c r="B48" s="21" t="s">
         <v>144</v>
       </c>
-      <c r="B48" s="21" t="s">
+      <c r="C48" s="21" t="s">
         <v>145</v>
       </c>
-      <c r="C48" s="21" t="s">
+      <c r="D48" s="22" t="s">
         <v>146</v>
       </c>
-      <c r="D48" s="22" t="s">
+      <c r="E48" s="21" t="s">
+        <v>35</v>
+      </c>
+      <c r="F48" s="21" t="s">
         <v>147</v>
-      </c>
-      <c r="E48" s="21" t="s">
-        <v>36</v>
-      </c>
-      <c r="F48" s="21" t="s">
-        <v>148</v>
       </c>
       <c r="G48" s="21">
         <v>1</v>
@@ -2168,27 +2168,27 @@
         <v>1</v>
       </c>
       <c r="K48" s="23" t="s">
+        <v>148</v>
+      </c>
+    </row>
+    <row r="49" spans="1:11">
+      <c r="A49" s="9" t="s">
         <v>149</v>
       </c>
-    </row>
-    <row r="49" spans="1:11" ht="20.399999999999999">
-      <c r="A49" s="9" t="s">
+      <c r="B49" s="21" t="s">
         <v>150</v>
       </c>
-      <c r="B49" s="21" t="s">
+      <c r="C49" s="21" t="s">
+        <v>145</v>
+      </c>
+      <c r="D49" s="22" t="s">
         <v>151</v>
       </c>
-      <c r="C49" s="21" t="s">
-        <v>146</v>
-      </c>
-      <c r="D49" s="22" t="s">
-        <v>152</v>
-      </c>
       <c r="E49" s="21" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="F49" s="21" t="s">
-        <v>148</v>
+        <v>147</v>
       </c>
       <c r="G49" s="21">
         <v>4</v>
@@ -2198,24 +2198,24 @@
       <c r="J49" s="23"/>
       <c r="K49" s="23"/>
     </row>
-    <row r="50" spans="1:11" ht="20.399999999999999">
+    <row r="50" spans="1:11">
       <c r="A50" s="9" t="s">
+        <v>152</v>
+      </c>
+      <c r="B50" s="21" t="s">
         <v>153</v>
       </c>
-      <c r="B50" s="21" t="s">
+      <c r="C50" s="21" t="s">
+        <v>145</v>
+      </c>
+      <c r="D50" s="22" t="s">
         <v>154</v>
       </c>
-      <c r="C50" s="21" t="s">
-        <v>146</v>
-      </c>
-      <c r="D50" s="22" t="s">
-        <v>155</v>
-      </c>
       <c r="E50" s="21" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="F50" s="21" t="s">
-        <v>148</v>
+        <v>147</v>
       </c>
       <c r="G50" s="21">
         <v>8</v>
@@ -2225,24 +2225,24 @@
       <c r="J50" s="23"/>
       <c r="K50" s="23"/>
     </row>
-    <row r="51" spans="1:11" ht="20.399999999999999">
+    <row r="51" spans="1:11">
       <c r="A51" s="9" t="s">
+        <v>155</v>
+      </c>
+      <c r="B51" s="21" t="s">
         <v>156</v>
       </c>
-      <c r="B51" s="21" t="s">
+      <c r="C51" s="21" t="s">
+        <v>145</v>
+      </c>
+      <c r="D51" s="22" t="s">
         <v>157</v>
       </c>
-      <c r="C51" s="21" t="s">
-        <v>146</v>
-      </c>
-      <c r="D51" s="22" t="s">
-        <v>158</v>
-      </c>
       <c r="E51" s="21" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="F51" s="21" t="s">
-        <v>148</v>
+        <v>147</v>
       </c>
       <c r="G51" s="21">
         <v>12</v>
@@ -2252,24 +2252,24 @@
       <c r="J51" s="23"/>
       <c r="K51" s="23"/>
     </row>
-    <row r="52" spans="1:11" ht="20.399999999999999">
+    <row r="52" spans="1:11">
       <c r="A52" s="9" t="s">
+        <v>158</v>
+      </c>
+      <c r="B52" s="21" t="s">
         <v>159</v>
       </c>
-      <c r="B52" s="21" t="s">
+      <c r="C52" s="21" t="s">
+        <v>145</v>
+      </c>
+      <c r="D52" s="22" t="s">
         <v>160</v>
       </c>
-      <c r="C52" s="21" t="s">
-        <v>146</v>
-      </c>
-      <c r="D52" s="22" t="s">
-        <v>161</v>
-      </c>
       <c r="E52" s="21" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="F52" s="21" t="s">
-        <v>148</v>
+        <v>147</v>
       </c>
       <c r="G52" s="21">
         <v>1</v>
@@ -2279,24 +2279,24 @@
       <c r="J52" s="23"/>
       <c r="K52" s="23"/>
     </row>
-    <row r="53" spans="1:11" ht="20.399999999999999">
+    <row r="53" spans="1:11">
       <c r="A53" s="9" t="s">
+        <v>161</v>
+      </c>
+      <c r="B53" s="21" t="s">
         <v>162</v>
       </c>
-      <c r="B53" s="21" t="s">
+      <c r="C53" s="21" t="s">
+        <v>145</v>
+      </c>
+      <c r="D53" s="22" t="s">
         <v>163</v>
       </c>
-      <c r="C53" s="21" t="s">
-        <v>146</v>
-      </c>
-      <c r="D53" s="22" t="s">
-        <v>164</v>
-      </c>
       <c r="E53" s="21" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="F53" s="21" t="s">
-        <v>148</v>
+        <v>147</v>
       </c>
       <c r="G53" s="21">
         <v>8</v>
@@ -2306,24 +2306,24 @@
       <c r="J53" s="23"/>
       <c r="K53" s="23"/>
     </row>
-    <row r="54" spans="1:11" ht="20.399999999999999">
+    <row r="54" spans="1:11">
       <c r="A54" s="9" t="s">
+        <v>164</v>
+      </c>
+      <c r="B54" s="21" t="s">
         <v>165</v>
       </c>
-      <c r="B54" s="21" t="s">
+      <c r="C54" s="21" t="s">
+        <v>145</v>
+      </c>
+      <c r="D54" s="22" t="s">
         <v>166</v>
       </c>
-      <c r="C54" s="21" t="s">
-        <v>146</v>
-      </c>
-      <c r="D54" s="22" t="s">
-        <v>167</v>
-      </c>
       <c r="E54" s="21" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="F54" s="21" t="s">
-        <v>148</v>
+        <v>147</v>
       </c>
       <c r="G54" s="21">
         <v>12</v>
@@ -2333,24 +2333,24 @@
       <c r="J54" s="23"/>
       <c r="K54" s="23"/>
     </row>
-    <row r="55" spans="1:11" ht="20.399999999999999">
+    <row r="55" spans="1:11">
       <c r="A55" s="9" t="s">
+        <v>167</v>
+      </c>
+      <c r="B55" s="21" t="s">
         <v>168</v>
       </c>
-      <c r="B55" s="21" t="s">
+      <c r="C55" s="21" t="s">
+        <v>145</v>
+      </c>
+      <c r="D55" s="22" t="s">
         <v>169</v>
       </c>
-      <c r="C55" s="21" t="s">
-        <v>146</v>
-      </c>
-      <c r="D55" s="22" t="s">
-        <v>170</v>
-      </c>
       <c r="E55" s="21" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="F55" s="21" t="s">
-        <v>148</v>
+        <v>147</v>
       </c>
       <c r="G55" s="21">
         <v>3</v>
@@ -2360,24 +2360,24 @@
       <c r="J55" s="23"/>
       <c r="K55" s="23"/>
     </row>
-    <row r="56" spans="1:11" ht="20.399999999999999">
+    <row r="56" spans="1:11">
       <c r="A56" s="9" t="s">
+        <v>170</v>
+      </c>
+      <c r="B56" s="21" t="s">
         <v>171</v>
       </c>
-      <c r="B56" s="21" t="s">
+      <c r="C56" s="21" t="s">
+        <v>145</v>
+      </c>
+      <c r="D56" s="22" t="s">
         <v>172</v>
       </c>
-      <c r="C56" s="21" t="s">
-        <v>146</v>
-      </c>
-      <c r="D56" s="22" t="s">
-        <v>173</v>
-      </c>
       <c r="E56" s="21" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="F56" s="21" t="s">
-        <v>148</v>
+        <v>147</v>
       </c>
       <c r="G56" s="21">
         <v>3</v>
@@ -2387,24 +2387,24 @@
       <c r="J56" s="23"/>
       <c r="K56" s="23"/>
     </row>
-    <row r="57" spans="1:11" ht="20.399999999999999">
+    <row r="57" spans="1:11">
       <c r="A57" s="9" t="s">
+        <v>173</v>
+      </c>
+      <c r="B57" s="21" t="s">
         <v>174</v>
       </c>
-      <c r="B57" s="21" t="s">
+      <c r="C57" s="21" t="s">
+        <v>145</v>
+      </c>
+      <c r="D57" s="22" t="s">
         <v>175</v>
       </c>
-      <c r="C57" s="21" t="s">
-        <v>146</v>
-      </c>
-      <c r="D57" s="22" t="s">
-        <v>176</v>
-      </c>
       <c r="E57" s="21" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="F57" s="21" t="s">
-        <v>148</v>
+        <v>147</v>
       </c>
       <c r="G57" s="21">
         <v>11</v>
@@ -2414,24 +2414,24 @@
       <c r="J57" s="23"/>
       <c r="K57" s="23"/>
     </row>
-    <row r="58" spans="1:11" ht="20.399999999999999">
+    <row r="58" spans="1:11">
       <c r="A58" s="9" t="s">
+        <v>176</v>
+      </c>
+      <c r="B58" s="21" t="s">
         <v>177</v>
       </c>
-      <c r="B58" s="21" t="s">
+      <c r="C58" s="21" t="s">
+        <v>145</v>
+      </c>
+      <c r="D58" s="22" t="s">
         <v>178</v>
       </c>
-      <c r="C58" s="21" t="s">
-        <v>146</v>
-      </c>
-      <c r="D58" s="22" t="s">
-        <v>179</v>
-      </c>
       <c r="E58" s="21" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="F58" s="21" t="s">
-        <v>148</v>
+        <v>147</v>
       </c>
       <c r="G58" s="21">
         <v>5</v>
@@ -2441,24 +2441,24 @@
       <c r="J58" s="23"/>
       <c r="K58" s="23"/>
     </row>
-    <row r="59" spans="1:11" ht="20.399999999999999">
+    <row r="59" spans="1:11">
       <c r="A59" s="9" t="s">
+        <v>179</v>
+      </c>
+      <c r="B59" s="21" t="s">
         <v>180</v>
       </c>
-      <c r="B59" s="21" t="s">
+      <c r="C59" s="21" t="s">
+        <v>145</v>
+      </c>
+      <c r="D59" s="22" t="s">
         <v>181</v>
       </c>
-      <c r="C59" s="21" t="s">
-        <v>146</v>
-      </c>
-      <c r="D59" s="22" t="s">
-        <v>182</v>
-      </c>
       <c r="E59" s="21" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="F59" s="21" t="s">
-        <v>148</v>
+        <v>147</v>
       </c>
       <c r="G59" s="21">
         <v>3</v>
@@ -2468,24 +2468,24 @@
       <c r="J59" s="23"/>
       <c r="K59" s="23"/>
     </row>
-    <row r="60" spans="1:11" ht="20.399999999999999">
+    <row r="60" spans="1:11">
       <c r="A60" s="9" t="s">
+        <v>182</v>
+      </c>
+      <c r="B60" s="21" t="s">
         <v>183</v>
       </c>
-      <c r="B60" s="21" t="s">
+      <c r="C60" s="21" t="s">
+        <v>145</v>
+      </c>
+      <c r="D60" s="22" t="s">
         <v>184</v>
       </c>
-      <c r="C60" s="21" t="s">
-        <v>146</v>
-      </c>
-      <c r="D60" s="22" t="s">
-        <v>185</v>
-      </c>
       <c r="E60" s="21" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="F60" s="21" t="s">
-        <v>148</v>
+        <v>147</v>
       </c>
       <c r="G60" s="21">
         <v>1</v>
@@ -2495,24 +2495,24 @@
       <c r="J60" s="23"/>
       <c r="K60" s="23"/>
     </row>
-    <row r="61" spans="1:11" ht="20.399999999999999">
+    <row r="61" spans="1:11">
       <c r="A61" s="9" t="s">
+        <v>185</v>
+      </c>
+      <c r="B61" s="21" t="s">
         <v>186</v>
       </c>
-      <c r="B61" s="21" t="s">
+      <c r="C61" s="21" t="s">
+        <v>145</v>
+      </c>
+      <c r="D61" s="22" t="s">
         <v>187</v>
       </c>
-      <c r="C61" s="21" t="s">
-        <v>146</v>
-      </c>
-      <c r="D61" s="22" t="s">
-        <v>188</v>
-      </c>
       <c r="E61" s="21" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="F61" s="21" t="s">
-        <v>148</v>
+        <v>147</v>
       </c>
       <c r="G61" s="21">
         <v>1</v>
@@ -2522,24 +2522,24 @@
       <c r="J61" s="23"/>
       <c r="K61" s="23"/>
     </row>
-    <row r="62" spans="1:11" ht="20.399999999999999">
+    <row r="62" spans="1:11">
       <c r="A62" s="9" t="s">
+        <v>188</v>
+      </c>
+      <c r="B62" s="21" t="s">
+        <v>144</v>
+      </c>
+      <c r="C62" s="21" t="s">
+        <v>145</v>
+      </c>
+      <c r="D62" s="22" t="s">
         <v>189</v>
       </c>
-      <c r="B62" s="21" t="s">
-        <v>145</v>
-      </c>
-      <c r="C62" s="21" t="s">
-        <v>146</v>
-      </c>
-      <c r="D62" s="22" t="s">
-        <v>190</v>
-      </c>
       <c r="E62" s="21" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="F62" s="21" t="s">
-        <v>148</v>
+        <v>147</v>
       </c>
       <c r="G62" s="21">
         <v>1</v>
@@ -2549,7 +2549,7 @@
       <c r="J62" s="23"/>
       <c r="K62" s="23"/>
     </row>
-    <row r="63" spans="1:11" ht="20.399999999999999">
+    <row r="63" spans="1:11">
       <c r="A63" s="2"/>
       <c r="C63" s="2"/>
       <c r="D63" s="3"/>
@@ -2558,7 +2558,7 @@
       <c r="G63" s="1"/>
       <c r="K63" s="2"/>
     </row>
-    <row r="64" spans="1:11" ht="20.399999999999999">
+    <row r="64" spans="1:11">
       <c r="A64" s="2"/>
       <c r="D64" s="1"/>
       <c r="E64" s="1"/>
